--- a/Fuser Tracking.xlsx
+++ b/Fuser Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d067795\Documents\GitHub\WDIProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9898BF36-FD7A-4AFB-B336-46B1A9BA7359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24638ABC-B1AD-4AC2-AA27-FF9DC0F1F4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="3720" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="1920" windowWidth="19200" windowHeight="14390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +492,7 @@
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
